--- a/buried.xlsx
+++ b/buried.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赛事-m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赛事详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赛事-v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享赛事详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>def</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,22 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿斯顿撒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗访</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反对过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +96,31 @@
   <si>
     <t>#rrr</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>param3</t>
+  </si>
+  <si>
+    <t>param4</t>
+  </si>
+  <si>
+    <t>param5</t>
+  </si>
+  <si>
+    <t>param6</t>
+  </si>
+  <si>
+    <t>param7</t>
+  </si>
+  <si>
+    <t>param8</t>
   </si>
 </sst>
 </file>
@@ -463,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,12 +470,12 @@
     <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -492,7 +485,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -500,104 +493,113 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>111</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
